--- a/Testing Description and Reasoning/Test Cases for Project.xlsx
+++ b/Testing Description and Reasoning/Test Cases for Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ritcus Matgau\Desktop\PlanIT bootcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ritcus Matgau\Desktop\PlanIT bootcamp\Project\floraindiangroceries\Testing Description and Reasoning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8768A1E-C78F-42DD-AD7E-EB92BA6FA8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E576E4B-A772-46C0-AF0F-6115002AE899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E93C215E-D1D5-4D24-AD23-2C995B4E1134}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E93C215E-D1D5-4D24-AD23-2C995B4E1134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Test ID</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Actual Output</t>
   </si>
   <si>
-    <t>User should be able to visit the respective links on the page.</t>
-  </si>
-  <si>
     <t>Reasoning</t>
   </si>
   <si>
@@ -68,10 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">User should be able to use side navigation to navigate towards delivery info. </t>
-  </si>
-  <si>
-    <t>1. Firstly redirect to the home page.
-2. Click on each navigation link item on the navigation bar."</t>
   </si>
   <si>
     <t xml:space="preserve">1. Firstly redirect to the home page.
@@ -83,13 +76,7 @@
 2. Click on "Contact Us" link item on the side navigation bar.</t>
   </si>
   <si>
-    <t>User should be able to redirect to https://floraindiangroceries.com.au/pages/delivery-click-collect and be able to access Delivery/Click &amp; Collect information</t>
-  </si>
-  <si>
     <t>User should be to navigate to the "Contact Us" link on the side navigation bar for contact information.</t>
-  </si>
-  <si>
-    <t>User should be able to navigate to https://floraindiangroceries.com.au/pages/contact-us and be able to access contact information</t>
   </si>
   <si>
     <t xml:space="preserve">1. Firstly redirect to the home page.
@@ -146,6 +133,22 @@
   </si>
   <si>
     <t>User should be able to view the products prices. (Example :  "Deep Vanilla Cream Roll" product has $4.90)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to the home page.
+</t>
+  </si>
+  <si>
+    <t>User should be able to view all the collections of product.</t>
+  </si>
+  <si>
+    <t>User should be redirected to https://floraindiangroceries.com.au/pages/delivery-click-collect and be able to access Delivery/Click &amp; Collect information</t>
+  </si>
+  <si>
+    <t>User should be navigated to https://floraindiangroceries.com.au/pages/contact-us and be able to access contact information</t>
+  </si>
+  <si>
+    <t>"Continue to shipping" button</t>
   </si>
 </sst>
 </file>
@@ -629,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69845309-A782-4A8C-8C15-DFAF83545EBA}">
   <dimension ref="E7:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="5:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -668,19 +671,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="5:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,19 +691,19 @@
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="5:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,19 +711,19 @@
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="5:10" ht="249" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,19 +731,19 @@
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="5:10" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H12" s="5">
         <v>4.9000000000000004</v>
@@ -760,7 +763,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="5:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,19 +771,19 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.25">
